--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aiden\OneDrive\Documents\GitHub\CS_422_p1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zane\Documents\CS_folders\CS_422_p1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E81E1C9A-31BA-451B-803D-95FF364C360C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F777262-24B8-4494-8384-7E9D386379B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{66730446-1E4B-46AE-930F-59A6A9B0F9E5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24495" windowHeight="21000" xr2:uid="{66730446-1E4B-46AE-930F-59A6A9B0F9E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,17 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="56">
   <si>
     <t>Task</t>
   </si>
   <si>
-    <t>Backend</t>
-  </si>
-  <si>
-    <t>Frontend</t>
-  </si>
-  <si>
     <t>Desgin and Maintenance</t>
   </si>
   <si>
@@ -56,68 +50,167 @@
     <t>SDS Document</t>
   </si>
   <si>
-    <t xml:space="preserve">Team Organization </t>
-  </si>
-  <si>
-    <t>Presentation</t>
-  </si>
-  <si>
-    <t>Project Plan</t>
-  </si>
-  <si>
-    <t>Download  data repositories</t>
-  </si>
-  <si>
-    <t>Open and process data into numpy or panda's</t>
-  </si>
-  <si>
-    <t>Create TS set objects including metadata</t>
-  </si>
-  <si>
-    <t>Create TS objects including metadata</t>
-  </si>
-  <si>
-    <t>Create prediction model that uses Single TS or Multivaraite methods</t>
-  </si>
-  <si>
-    <t>Train models using TS object train data</t>
-  </si>
-  <si>
-    <t>Test model accuracy using metrics (RMSE)</t>
-  </si>
-  <si>
     <t>Store/download .csv/database files</t>
   </si>
   <si>
-    <t>Establish slick way of representing graphs and data</t>
-  </si>
-  <si>
-    <t>Create an intuitive design for changing users downloading and uploading data</t>
-  </si>
-  <si>
-    <t>Hosting ?</t>
-  </si>
-  <si>
-    <t>Responsive and Dyanmic design</t>
-  </si>
-  <si>
-    <t>Loading/Calculating graphs and data</t>
-  </si>
-  <si>
-    <t>Assigned</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>End</t>
+    <t>W</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>assigned to</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>Create login page</t>
+  </si>
+  <si>
+    <t>create contributor page</t>
+  </si>
+  <si>
+    <t>create participant page</t>
+  </si>
+  <si>
+    <t>create method for contributor to upload TS data &amp; forecasting task</t>
+  </si>
+  <si>
+    <t>create method for participant to download forecasting task and training dat</t>
+  </si>
+  <si>
+    <t>present statistical comparisons (and graphs?) to participant upon upload of solution data</t>
+  </si>
+  <si>
+    <t>create method for participant to upload solution data to a forecasting task</t>
+  </si>
+  <si>
+    <t>Team Meetings</t>
+  </si>
+  <si>
+    <t>distribute tasks</t>
+  </si>
+  <si>
+    <t>decide on framework</t>
+  </si>
+  <si>
+    <t>set up a DB</t>
+  </si>
+  <si>
+    <t>download data for testing</t>
+  </si>
+  <si>
+    <t>functionality for login screen</t>
+  </si>
+  <si>
+    <t>Frontend/UI design</t>
+  </si>
+  <si>
+    <t>create admin page</t>
+  </si>
+  <si>
+    <t>create UI design</t>
+  </si>
+  <si>
+    <t>set up git repository</t>
+  </si>
+  <si>
+    <t>set up trello</t>
+  </si>
+  <si>
+    <t>set up google drive</t>
+  </si>
+  <si>
+    <t>set up discord</t>
+  </si>
+  <si>
+    <t>recurring</t>
+  </si>
+  <si>
+    <t>Erin</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Backend &amp; functionality</t>
+  </si>
+  <si>
+    <t>functionality to save user account information</t>
+  </si>
+  <si>
+    <t>functionality to compare test/solution data accuracy using metrics</t>
+  </si>
+  <si>
+    <t>project due</t>
+  </si>
+  <si>
+    <t>Project presentations</t>
+  </si>
+  <si>
+    <t>Progress Meetings</t>
+  </si>
+  <si>
+    <t>create page for contributor to upload TS data &amp; forecasting task</t>
+  </si>
+  <si>
+    <t>create page for participant to upload solution data to a forecasting task</t>
+  </si>
+  <si>
+    <t>create page for participant to download forecasting task and training dat</t>
+  </si>
+  <si>
+    <t>Organization &amp; Outputs</t>
+  </si>
+  <si>
+    <t>design SW architecture</t>
+  </si>
+  <si>
+    <t>2023-05-03 to 2023-05-05</t>
+  </si>
+  <si>
+    <t>2023-05-05 to 2023-05-09 ?????</t>
+  </si>
+  <si>
+    <t>Zane &amp; Zach</t>
+  </si>
+  <si>
+    <t>Zane &amp; Zach &amp; kareem</t>
+  </si>
+  <si>
+    <t>Zane &amp; Zach &amp; Team</t>
+  </si>
+  <si>
+    <t>Zane</t>
+  </si>
+  <si>
+    <t>Aiden</t>
+  </si>
+  <si>
+    <t>Zane &amp; Team</t>
+  </si>
+  <si>
+    <t>Aiden &amp; Erin &amp; Team</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,19 +226,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -183,8 +284,37 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -192,27 +322,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="5"/>
+    <xf numFmtId="14" fontId="2" fillId="12" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
+    <cellStyle name="40% - Accent1" xfId="2" builtinId="31"/>
+    <cellStyle name="40% - Accent2" xfId="4" builtinId="35"/>
+    <cellStyle name="60% - Accent1" xfId="3" builtinId="32"/>
+    <cellStyle name="60% - Accent3" xfId="5" builtinId="40"/>
+    <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -525,218 +691,1145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C93A66F6-D013-41F6-878D-4D288D768DB4}">
-  <dimension ref="A3:D27"/>
+  <dimension ref="A1:AN46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
+    <col min="1" max="1" width="45.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="4" style="16" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" customWidth="1"/>
+    <col min="7" max="10" width="3.7109375" customWidth="1"/>
+    <col min="11" max="11" width="3.7109375" style="13" customWidth="1"/>
+    <col min="12" max="13" width="3.7109375" customWidth="1"/>
+    <col min="14" max="14" width="3.7109375" style="13" customWidth="1"/>
+    <col min="15" max="17" width="3.7109375" customWidth="1"/>
+    <col min="18" max="18" width="3.7109375" style="13" customWidth="1"/>
+    <col min="19" max="20" width="3.7109375" customWidth="1"/>
+    <col min="21" max="21" width="3.7109375" style="13" customWidth="1"/>
+    <col min="22" max="24" width="3.7109375" customWidth="1"/>
+    <col min="25" max="25" width="3.7109375" style="13" customWidth="1"/>
+    <col min="26" max="27" width="3.7109375" customWidth="1"/>
+    <col min="28" max="28" width="3.7109375" style="13" customWidth="1"/>
+    <col min="29" max="31" width="3.7109375" customWidth="1"/>
+    <col min="32" max="32" width="3.7109375" style="13" customWidth="1"/>
+    <col min="33" max="34" width="3.7109375" customWidth="1"/>
+    <col min="35" max="35" width="3.7109375" style="13" customWidth="1"/>
+    <col min="36" max="39" width="3.7109375" customWidth="1"/>
+    <col min="40" max="40" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="F1" s="7">
+        <v>45021</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7">
+        <v>45026</v>
+      </c>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7">
+        <v>45033</v>
+      </c>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7">
+        <v>45040</v>
+      </c>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7">
+        <v>45047</v>
+      </c>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="7"/>
+      <c r="AJ1" s="7"/>
+      <c r="AK1" s="7"/>
+      <c r="AL1" s="7"/>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>8</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="S2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="V2" t="s">
+        <v>7</v>
+      </c>
+      <c r="W2" t="s">
+        <v>8</v>
+      </c>
+      <c r="X2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="18">
+        <v>5</v>
+      </c>
+      <c r="G3" s="18">
+        <v>6</v>
+      </c>
+      <c r="H3" s="18">
+        <v>7</v>
+      </c>
+      <c r="I3" s="18">
+        <v>8</v>
+      </c>
+      <c r="J3" s="18">
+        <v>9</v>
+      </c>
+      <c r="K3" s="19">
+        <v>10</v>
+      </c>
+      <c r="L3" s="18">
+        <v>11</v>
+      </c>
+      <c r="M3" s="18">
+        <v>12</v>
+      </c>
+      <c r="N3" s="19">
+        <v>13</v>
+      </c>
+      <c r="O3" s="18">
+        <v>14</v>
+      </c>
+      <c r="P3" s="18">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="18">
+        <v>16</v>
+      </c>
+      <c r="R3" s="19">
+        <v>17</v>
+      </c>
+      <c r="S3" s="18">
+        <v>18</v>
+      </c>
+      <c r="T3" s="18">
+        <v>19</v>
+      </c>
+      <c r="U3" s="19">
+        <v>20</v>
+      </c>
+      <c r="V3" s="18">
+        <v>21</v>
+      </c>
+      <c r="W3" s="18">
         <v>22</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="X3" s="18">
         <v>23</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="Y3" s="19">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="Z3" s="18">
+        <v>25</v>
+      </c>
+      <c r="AA3" s="18">
+        <v>26</v>
+      </c>
+      <c r="AB3" s="19">
+        <v>27</v>
+      </c>
+      <c r="AC3" s="18">
+        <v>28</v>
+      </c>
+      <c r="AD3" s="18">
+        <v>29</v>
+      </c>
+      <c r="AE3" s="18">
+        <v>30</v>
+      </c>
+      <c r="AF3" s="19">
         <v>1</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="AG3" s="18">
+        <v>2</v>
+      </c>
+      <c r="AH3" s="18">
+        <v>3</v>
+      </c>
+      <c r="AI3" s="19">
+        <v>4</v>
+      </c>
+      <c r="AJ3" s="18">
+        <v>5</v>
+      </c>
+      <c r="AK3" s="18">
+        <v>6</v>
+      </c>
+      <c r="AL3" s="18">
+        <v>7</v>
+      </c>
+      <c r="AM3" s="18">
+        <v>8</v>
+      </c>
+      <c r="AN3" s="18">
         <v>9</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="8">
+        <v>45021</v>
+      </c>
+      <c r="D5" s="8">
+        <v>45029</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="14"/>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="8">
+        <v>45021</v>
+      </c>
+      <c r="D6" s="8">
+        <v>45036</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="14"/>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="8">
+        <v>45036</v>
+      </c>
+      <c r="D7" s="8">
+        <v>45047</v>
+      </c>
+      <c r="U7" s="14"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="14"/>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="8">
+        <v>45029</v>
+      </c>
+      <c r="D8" s="8">
+        <v>45043</v>
+      </c>
+      <c r="N8" s="14"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="14"/>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="8">
+        <v>45029</v>
+      </c>
+      <c r="D9" s="8">
+        <v>45043</v>
+      </c>
+      <c r="N9" s="14"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="14"/>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="8">
+        <v>45036</v>
+      </c>
+      <c r="D10" s="8">
+        <v>45047</v>
+      </c>
+      <c r="U10" s="14"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="9"/>
+      <c r="AD10" s="9"/>
+      <c r="AE10" s="9"/>
+      <c r="AF10" s="14"/>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="8">
+        <v>45036</v>
+      </c>
+      <c r="D11" s="8">
+        <v>45047</v>
+      </c>
+      <c r="U11" s="14"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="9"/>
+      <c r="AF11" s="14"/>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="8">
+        <v>45036</v>
+      </c>
+      <c r="D12" s="8">
+        <v>45047</v>
+      </c>
+      <c r="U12" s="14"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="14"/>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="8">
+        <v>45036</v>
+      </c>
+      <c r="D13" s="8">
+        <v>45047</v>
+      </c>
+      <c r="U13" s="14"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="9"/>
+      <c r="AF13" s="14"/>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="8">
+        <v>45036</v>
+      </c>
+      <c r="D14" s="8">
+        <v>45047</v>
+      </c>
+      <c r="U14" s="14"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="14"/>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="14"/>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="8">
+        <v>45029</v>
+      </c>
+      <c r="D18" s="8">
+        <v>45036</v>
+      </c>
+      <c r="N18" s="14"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="14"/>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="8">
+        <v>45029</v>
+      </c>
+      <c r="D19" s="8">
+        <v>45043</v>
+      </c>
+      <c r="N19" s="14"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="9"/>
+      <c r="AB19" s="14"/>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="8">
+        <v>45029</v>
+      </c>
+      <c r="D20" s="8">
+        <v>45043</v>
+      </c>
+      <c r="N20" s="14"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="14"/>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="8">
+        <v>45029</v>
+      </c>
+      <c r="D21" s="8">
+        <v>45043</v>
+      </c>
+      <c r="N21" s="14"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="14"/>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="8">
+        <v>45036</v>
+      </c>
+      <c r="D22" s="8">
+        <v>45047</v>
+      </c>
+      <c r="U22" s="14"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="9"/>
+      <c r="AB22" s="14"/>
+      <c r="AC22" s="9"/>
+      <c r="AD22" s="9"/>
+      <c r="AE22" s="9"/>
+      <c r="AF22" s="14"/>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="8">
+        <v>45036</v>
+      </c>
+      <c r="D23" s="8">
+        <v>45047</v>
+      </c>
+      <c r="U23" s="14"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="14"/>
+      <c r="AC23" s="9"/>
+      <c r="AD23" s="9"/>
+      <c r="AE23" s="9"/>
+      <c r="AF23" s="14"/>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="8">
+        <v>45036</v>
+      </c>
+      <c r="D24" s="8">
+        <v>45047</v>
+      </c>
+      <c r="U24" s="14"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="9"/>
+      <c r="AA24" s="9"/>
+      <c r="AB24" s="14"/>
+      <c r="AC24" s="9"/>
+      <c r="AD24" s="9"/>
+      <c r="AE24" s="9"/>
+      <c r="AF24" s="14"/>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="8">
+        <v>45036</v>
+      </c>
+      <c r="D25" s="8">
+        <v>45047</v>
+      </c>
+      <c r="U25" s="14"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="9"/>
+      <c r="AA25" s="9"/>
+      <c r="AB25" s="14"/>
+      <c r="AC25" s="9"/>
+      <c r="AD25" s="9"/>
+      <c r="AE25" s="9"/>
+      <c r="AF25" s="14"/>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="8">
+        <v>45036</v>
+      </c>
+      <c r="D26" s="8">
+        <v>45047</v>
+      </c>
+      <c r="U26" s="14"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="9"/>
+      <c r="AB26" s="14"/>
+      <c r="AC26" s="9"/>
+      <c r="AD26" s="9"/>
+      <c r="AE26" s="9"/>
+      <c r="AF26" s="14"/>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="B30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="8">
+        <v>45021</v>
+      </c>
+      <c r="D30" s="8">
+        <v>45040</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
+      <c r="Y30" s="14"/>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="8">
+        <v>45021</v>
+      </c>
+      <c r="D31" s="8">
+        <v>45040</v>
+      </c>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="9"/>
+      <c r="Y31" s="14"/>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="8">
+        <v>45021</v>
+      </c>
+      <c r="D32" s="8">
+        <v>45040</v>
+      </c>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="9"/>
+      <c r="Y32" s="14"/>
+    </row>
+    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+    </row>
+    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+    </row>
+    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+    </row>
+    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+    </row>
+    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="8">
+        <v>45021</v>
+      </c>
+      <c r="D38" s="8">
+        <v>45033</v>
+      </c>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="14"/>
+    </row>
+    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="8">
+        <v>45021</v>
+      </c>
+      <c r="D39" s="8">
+        <v>45021</v>
+      </c>
+      <c r="E39" s="17"/>
+      <c r="F39" s="9"/>
+    </row>
+    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="8">
+        <v>45021</v>
+      </c>
+      <c r="D40" s="8">
+        <v>45021</v>
+      </c>
+      <c r="E40" s="17"/>
+      <c r="F40" s="9"/>
+    </row>
+    <row r="41" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="8">
+        <v>45021</v>
+      </c>
+      <c r="D41" s="8">
+        <v>45021</v>
+      </c>
+      <c r="E41" s="17"/>
+      <c r="F41" s="9"/>
+    </row>
+    <row r="42" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="8">
+        <v>45021</v>
+      </c>
+      <c r="D42" s="8">
+        <v>45021</v>
+      </c>
+      <c r="E42" s="17"/>
+      <c r="F42" s="9"/>
+    </row>
+    <row r="43" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
+      <c r="B43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" s="10"/>
+      <c r="K43" s="14"/>
+      <c r="N43" s="14"/>
+      <c r="R43" s="14"/>
+      <c r="U43" s="14"/>
+      <c r="Y43" s="14"/>
+      <c r="AB43" s="14"/>
+      <c r="AF43" s="14"/>
+      <c r="AI43" s="14"/>
+    </row>
+    <row r="44" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" s="10"/>
+      <c r="S44" s="9"/>
+      <c r="Z44" s="9"/>
+      <c r="AA44" s="9"/>
+      <c r="AB44" s="14"/>
+    </row>
+    <row r="45" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="10"/>
+      <c r="AH45" s="9"/>
+      <c r="AI45" s="14"/>
+      <c r="AJ45" s="9"/>
+    </row>
+    <row r="46" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A46" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="10"/>
+      <c r="AJ46" s="9"/>
+      <c r="AK46" s="9"/>
+      <c r="AL46" s="9"/>
+      <c r="AM46" s="9"/>
+      <c r="AN46" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="K1:Q1"/>
+    <mergeCell ref="R1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="AF1:AL1"/>
+    <mergeCell ref="F1:J1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
